--- a/biology/Botanique/Square_Sofia/Square_Sofia.xlsx
+++ b/biology/Botanique/Square_Sofia/Square_Sofia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le square Sofia est un jardin algérois. Le jardin est créé sur l'ancien fort de Bab Azzoun, dont une partie subsiste encore de nos jours. À l'indépendance, il est baptisé Sofia, du nom de la ville bulgare[1].
+Le square Sofia est un jardin algérois. Le jardin est créé sur l'ancien fort de Bab Azzoun, dont une partie subsiste encore de nos jours. À l'indépendance, il est baptisé Sofia, du nom de la ville bulgare.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A l'interieur de ce square se dresse la  statuette de l'aviateur Georges Guynemer (1894-1917)[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'interieur de ce square se dresse la  statuette de l'aviateur Georges Guynemer (1894-1917). 
 Au milieu du square, se trouve la sculpture réalisée lors du Festival panafricain d'Alger en 1969.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est desservi par la ligne 1 du métro d'Alger à la station Tafourah - Grande Poste.
 Il est desservi par les lignes de bus de l'ETUSA : 7. 
